--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H2">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>1.564764266828</v>
+        <v>0.8750088683178886</v>
       </c>
       <c r="R2">
-        <v>14.082878401452</v>
+        <v>7.875079814860999</v>
       </c>
       <c r="S2">
-        <v>0.00341108458366417</v>
+        <v>0.001728547449589697</v>
       </c>
       <c r="T2">
-        <v>0.00341108458366417</v>
+        <v>0.001728547449589697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H3">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>18.054814919018</v>
+        <v>3.604056217196555</v>
       </c>
       <c r="R3">
-        <v>162.493334271162</v>
+        <v>32.436505954769</v>
       </c>
       <c r="S3">
-        <v>0.03935832517189108</v>
+        <v>0.007119678906099647</v>
       </c>
       <c r="T3">
-        <v>0.03935832517189108</v>
+        <v>0.007119678906099647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H4">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I4">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J4">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>21.266619891896</v>
+        <v>4.666486463684889</v>
       </c>
       <c r="R4">
-        <v>191.399579027064</v>
+        <v>41.998378173164</v>
       </c>
       <c r="S4">
-        <v>0.04635985163883227</v>
+        <v>0.009218470312025351</v>
       </c>
       <c r="T4">
-        <v>0.04635985163883226</v>
+        <v>0.009218470312025351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H5">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I5">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J5">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>2.085883498724</v>
+        <v>0.2209903838224444</v>
       </c>
       <c r="R5">
-        <v>18.772951488516</v>
+        <v>1.988913454402</v>
       </c>
       <c r="S5">
-        <v>0.004547090700275441</v>
+        <v>0.0004365582774886318</v>
       </c>
       <c r="T5">
-        <v>0.004547090700275441</v>
+        <v>0.0004365582774886318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.528539</v>
       </c>
       <c r="I6">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J6">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>3.519783365885111</v>
+        <v>9.860091688405443</v>
       </c>
       <c r="R6">
-        <v>31.678050292966</v>
+        <v>88.74082519564899</v>
       </c>
       <c r="S6">
-        <v>0.007672899382823155</v>
+        <v>0.01947824411594636</v>
       </c>
       <c r="T6">
-        <v>0.007672899382823153</v>
+        <v>0.01947824411594636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.528539</v>
       </c>
       <c r="I7">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J7">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
         <v>40.61253095644678</v>
@@ -883,10 +883,10 @@
         <v>365.512778608021</v>
       </c>
       <c r="S7">
-        <v>0.08853268264487223</v>
+        <v>0.0802285432159128</v>
       </c>
       <c r="T7">
-        <v>0.08853268264487221</v>
+        <v>0.08022854321591279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.528539</v>
       </c>
       <c r="I8">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J8">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>47.83717044857911</v>
+        <v>52.58459206600845</v>
       </c>
       <c r="R8">
-        <v>430.534534037212</v>
+        <v>473.261328594076</v>
       </c>
       <c r="S8">
-        <v>0.1042819280210467</v>
+        <v>0.1038789043111636</v>
       </c>
       <c r="T8">
-        <v>0.1042819280210467</v>
+        <v>0.1038789043111636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>11.528539</v>
       </c>
       <c r="I9">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J9">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>4.691989840019778</v>
+        <v>2.490243842824222</v>
       </c>
       <c r="R9">
-        <v>42.227908560178</v>
+        <v>22.412194585418</v>
       </c>
       <c r="S9">
-        <v>0.01022823344659086</v>
+        <v>0.004919384019095951</v>
       </c>
       <c r="T9">
-        <v>0.01022823344659086</v>
+        <v>0.004919384019095951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H10">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I10">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J10">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>0.418765942773111</v>
+        <v>0.5368803258841111</v>
       </c>
       <c r="R10">
-        <v>3.768893484957999</v>
+        <v>4.831922932957</v>
       </c>
       <c r="S10">
-        <v>0.0009128825867506643</v>
+        <v>0.001060587099906645</v>
       </c>
       <c r="T10">
-        <v>0.0009128825867506642</v>
+        <v>0.001060587099906645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H11">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I11">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J11">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>4.831872603074777</v>
+        <v>2.211345446261444</v>
       </c>
       <c r="R11">
-        <v>43.48685342767299</v>
+        <v>19.902109016353</v>
       </c>
       <c r="S11">
-        <v>0.01053316879480437</v>
+        <v>0.00436843061790356</v>
       </c>
       <c r="T11">
-        <v>0.01053316879480437</v>
+        <v>0.00436843061790356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H12">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I12">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J12">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>5.69142350539511</v>
+        <v>2.863222150163112</v>
       </c>
       <c r="R12">
-        <v>51.22281154855599</v>
+        <v>25.768999351468</v>
       </c>
       <c r="S12">
-        <v>0.01240693399633412</v>
+        <v>0.005656188782163446</v>
       </c>
       <c r="T12">
-        <v>0.01240693399633412</v>
+        <v>0.005656188782163446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H13">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I13">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J13">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>0.5582291137237777</v>
+        <v>0.1355933563415556</v>
       </c>
       <c r="R13">
-        <v>5.024062023513999</v>
+        <v>1.220340207074</v>
       </c>
       <c r="S13">
-        <v>0.001216903251398825</v>
+        <v>0.0002678596283670502</v>
       </c>
       <c r="T13">
-        <v>0.001216903251398824</v>
+        <v>0.0002678596283670502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H14">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I14">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J14">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N14">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q14">
-        <v>11.20062751358133</v>
+        <v>36.01747553515222</v>
       </c>
       <c r="R14">
-        <v>100.805647622232</v>
+        <v>324.15727981637</v>
       </c>
       <c r="S14">
-        <v>0.02441664131070146</v>
+        <v>0.0711511822693076</v>
       </c>
       <c r="T14">
-        <v>0.02441664131070146</v>
+        <v>0.0711511822693076</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H15">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I15">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J15">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.705039</v>
       </c>
       <c r="O15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q15">
-        <v>129.2368831661213</v>
+        <v>148.3516468578589</v>
       </c>
       <c r="R15">
-        <v>1163.131948495092</v>
+        <v>1335.16482172073</v>
       </c>
       <c r="S15">
-        <v>0.2817280207340146</v>
+        <v>0.2930631563901154</v>
       </c>
       <c r="T15">
-        <v>0.2817280207340146</v>
+        <v>0.2930631563901154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H16">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I16">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J16">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N16">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q16">
-        <v>152.2270753056693</v>
+        <v>192.0838383775423</v>
       </c>
       <c r="R16">
-        <v>1370.043677751024</v>
+        <v>1728.75454539788</v>
       </c>
       <c r="S16">
-        <v>0.3318451480516398</v>
+        <v>0.3794544729280114</v>
       </c>
       <c r="T16">
-        <v>0.3318451480516397</v>
+        <v>0.3794544729280114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H17">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I17">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J17">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N17">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O17">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P17">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q17">
-        <v>14.93081392591733</v>
+        <v>9.096497225371111</v>
       </c>
       <c r="R17">
-        <v>134.377325333256</v>
+        <v>81.86847502834</v>
       </c>
       <c r="S17">
-        <v>0.03254820568436025</v>
+        <v>0.01796979167690286</v>
       </c>
       <c r="T17">
-        <v>0.03254820568436025</v>
+        <v>0.01796979167690286</v>
       </c>
     </row>
   </sheetData>
